--- a/LEhangtagsSample.xlsx
+++ b/LEhangtagsSample.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/rou94980-HangtagChangePage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggytest/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C530A44-EE53-0248-A1EA-5175F0B2DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A53B4-73CE-494F-B8D6-C5EFD16CC7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53080" yWindow="1560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleWorksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SampleWorksheet!$A$1:$C$38</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>This sample represents</t>
   </si>
   <si>
     <r>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>Checked by:</t>
+  </si>
+  <si>
+    <t>Sample Type</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1710,7 +1714,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1822,33 +1826,33 @@
     </row>
     <row r="13" spans="1:3" ht="22.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="22.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="22.5" customHeight="1">
       <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="22.5" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1864,14 +1868,14 @@
     </row>
     <row r="19" spans="1:3" ht="30.75" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="22.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1943,7 +1947,7 @@
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>

--- a/LEhangtagsSample.xlsx
+++ b/LEhangtagsSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggytest/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A53B4-73CE-494F-B8D6-C5EFD16CC7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9285D8-2AD7-3543-A453-9569A60367A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53080" yWindow="1560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1711,10 +1711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C38" sqref="A1:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1978,7 +1981,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="59" orientation="portrait"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/LEhangtagsSample.xlsx
+++ b/LEhangtagsSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggytest/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9285D8-2AD7-3543-A453-9569A60367A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1209CB-FBC7-2F42-804C-781138C5DAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53080" yWindow="1560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SampleWorksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SampleWorksheet!$A$1:$C$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SampleWorksheet!$A$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1714,10 +1714,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="A1:C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1923,57 +1923,37 @@
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" ht="17.25" customHeight="1">
+    <row r="29" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="22"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="30"/>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="30"/>
-    </row>
-    <row r="37" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="30"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="30"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="30"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" thickBot="1">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LEhangtagsSample.xlsx
+++ b/LEhangtagsSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggytest/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1209CB-FBC7-2F42-804C-781138C5DAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025A4150-06B5-6348-BE0C-4887B0383687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53080" yWindow="1560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -92,26 +92,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>☑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Photo samples</t>
-    </r>
   </si>
   <si>
     <t>Sub Trims</t>
@@ -482,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,7 +485,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1717,7 +1696,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1730,16 +1709,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -1829,131 +1808,129 @@
     </row>
     <row r="13" spans="1:3" ht="22.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>19</v>
+      <c r="B16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" ht="22.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="30"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LEhangtagsSample.xlsx
+++ b/LEhangtagsSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggytest/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025A4150-06B5-6348-BE0C-4887B0383687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFCC671-301B-284F-AE37-B927D75861C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53080" yWindow="1560" windowWidth="20400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -131,7 +131,22 @@
   </si>
   <si>
     <t>Sample Type</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -194,12 +209,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="細明體"/>
@@ -224,6 +233,12 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -462,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,8 +500,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -495,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -512,7 +525,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,7 +1709,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1709,16 +1722,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -1810,48 +1823,50 @@
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="22.5" customHeight="1">
       <c r="A20" s="5" t="s">
@@ -1861,82 +1876,82 @@
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A21" s="14"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A24" s="21"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="27"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
